--- a/biology/Botanique/Ontario_(pomme)/Ontario_(pomme).xlsx
+++ b/biology/Botanique/Ontario_(pomme)/Ontario_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ontario est un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh Ontario
@@ -512,7 +524,9 @@
           <t>Description du fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calibre : grosse pomme
 Épicarpe : rouge-verte
@@ -547,10 +561,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar issu du croisement Wagener x Northern Spy.
-Obtenu au Canada, par Charles Arnold [1].
+Obtenu au Canada, par Charles Arnold .
 Distribué vers 1873.
 </t>
         </is>
@@ -580,10 +596,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Groupe de floraison : C (mi-saison).
-S-génotype : S1S8 [2]. (Il existe des cultivars tétraploïdes)</t>
+S-génotype : S1S8 . (Il existe des cultivars tétraploïdes)</t>
         </is>
       </c>
     </row>
@@ -611,12 +629,14 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Type de fructification : spur[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Type de fructification : spur
 Récolte : fin octobre
 Consommation : pomme d'hiver, de décembre à mai
-Vigueur du cultivar: moyenne (T2)[4].</t>
+Vigueur du cultivar: moyenne (T2).</t>
         </is>
       </c>
     </row>
